--- a/data/trans_bre/P37_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P37_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +584,42 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,17 +652,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-3,86</t>
+          <t>-3,8</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,45</t>
+          <t>7,71</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,52</t>
+          <t>4,6</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -640,22 +672,42 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-12,54%</t>
+          <t>-9,66</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,38%</t>
+          <t>-4,24</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>10,95%</t>
+          <t>-10,87%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-7,42%</t>
+          <t>25,52%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>13,16%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-7,4%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-25,22%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-12,27%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-15,13; 6,9</t>
+          <t>-15,2; 8,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,13; 12,43</t>
+          <t>-2,83; 19,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,86; 14,67</t>
+          <t>-8,26; 16,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-15,69; 11,11</t>
+          <t>-16,46; 11,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-40,62; 28,34</t>
+          <t>-21,84; 1,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-24,62; 51,59</t>
+          <t>-17,73; 8,19</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-23,44; 59,8</t>
+          <t>-36,94; 30,73</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-35,67; 33,67</t>
+          <t>-9,87; 78,32</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-19,12; 63,64</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-35,55; 36,2</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-48,4; 6,82</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-41,34; 30,71</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-3,59</t>
+          <t>-4,64</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,42</t>
+          <t>-1,72</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>-1,29</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-11,38%</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-1,22%</t>
+          <t>-11,37</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-0,57%</t>
+          <t>-14,33%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,2%</t>
+          <t>-4,88%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-3,67%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0,12%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>4,82%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-23,78%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-15,05; 8,05</t>
+          <t>-18,49; 6,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-10,75; 9,62</t>
+          <t>-13,23; 7,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-11,7; 10,37</t>
+          <t>-12,83; 9,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-13,47; 12,22</t>
+          <t>-12,78; 11,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-38,08; 33,57</t>
+          <t>-10,08; 13,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-26,31; 33,51</t>
+          <t>-27,98; 1,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-27,75; 39,66</t>
+          <t>-43,02; 27,34</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-27,0; 38,15</t>
+          <t>-30,7; 26,57</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-30,35; 33,75</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-27,13; 35,27</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-22,93; 46,36</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-46,43; 5,19</t>
         </is>
       </c>
     </row>
@@ -820,12 +932,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,39</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>2,35</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -835,27 +947,47 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>9,96%</t>
+          <t>2,71</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,17%</t>
+          <t>3,12</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>26,95%</t>
+          <t>0,13%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>7,27%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>27,01%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>3,39%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>6,51%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>8,74%</t>
         </is>
       </c>
     </row>
@@ -868,42 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 13,4</t>
+          <t>-9,65; 9,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 10,08</t>
+          <t>-5,25; 10,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,51; 15,17</t>
+          <t>-0,52; 15,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,97; 10,64</t>
+          <t>-8,61; 10,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-14,33; 47,39</t>
+          <t>-7,09; 12,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-15,92; 34,83</t>
+          <t>-5,86; 12,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,51; 61,86</t>
+          <t>-23,73; 31,84</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-17,99; 31,48</t>
+          <t>-14,37; 34,85</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-1,1; 62,43</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-19,86; 31,62</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-15,09; 36,62</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-14,38; 42,54</t>
         </is>
       </c>
     </row>
@@ -920,17 +1072,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,92</t>
+          <t>-3,02</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,66</t>
+          <t>4,14</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,29</t>
+          <t>6,66</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -940,22 +1092,42 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-7,56%</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>12,78%</t>
+          <t>3,97</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>18,34%</t>
+          <t>-7,68%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,52%</t>
+          <t>11,22%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>16,43%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>7,54%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,43%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>9,53%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-11,06; 5,65</t>
+          <t>-10,71; 6,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 12,15</t>
+          <t>-3,53; 11,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 15,75</t>
+          <t>-0,87; 14,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,53; 13,1</t>
+          <t>-7,56; 13,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-26,22; 16,75</t>
+          <t>-8,56; 9,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-7,29; 37,71</t>
+          <t>-5,14; 12,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 46,67</t>
+          <t>-25,11; 18,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-14,5; 38,44</t>
+          <t>-8,68; 36,39</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-1,94; 40,07</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-16,9; 38,26</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-17,38; 24,16</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-11,08; 32,91</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1212,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,77</t>
+          <t>5,83</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>12,97</t>
+          <t>12,23</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,21</t>
+          <t>5,96</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>11,86</t>
+          <t>11,87</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>17,1%</t>
+          <t>-1,27</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>44,0%</t>
+          <t>11,94</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>17,29%</t>
+          <t>17,54%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>26,88%</t>
+          <t>40,47%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>16,49%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>26,89%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-2,64%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>33,42%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1280,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 14,98</t>
+          <t>-3,1; 16,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,71; 21,19</t>
+          <t>3,19; 20,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 14,95</t>
+          <t>-2,96; 14,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,06; 21,97</t>
+          <t>2,43; 21,35</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,32; 51,28</t>
+          <t>-10,81; 9,25</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>11,17; 87,4</t>
+          <t>1,4; 21,15</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 47,78</t>
+          <t>-8,17; 57,56</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,21; 56,86</t>
+          <t>9,09; 78,37</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-7,64; 46,12</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>5,1; 56,94</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-20,68; 20,94</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>4,0; 70,22</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1352,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>11,56</t>
+          <t>10,17</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>4,3</t>
+          <t>3,98</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>9,41</t>
+          <t>9,44</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>28,45%</t>
+          <t>9,01</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>10,53%</t>
+          <t>7,34</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-1,55%</t>
+          <t>24,92%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>25,09%</t>
+          <t>9,74%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1,07%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>25,15%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>21,34%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>18,97%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1420,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 22,64</t>
+          <t>-0,73; 21,43</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 15,57</t>
+          <t>-5,9; 14,68</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-12,21; 9,82</t>
+          <t>-10,53; 9,7</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 21,97</t>
+          <t>-3,89; 21,3</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 67,87</t>
+          <t>-4,0; 20,98</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-11,37; 47,42</t>
+          <t>-5,95; 20,81</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-26,63; 27,34</t>
+          <t>-1,76; 62,48</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 67,45</t>
+          <t>-12,6; 42,02</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-22,47; 26,79</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-9,03; 67,78</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-8,67; 57,95</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-12,58; 64,63</t>
         </is>
       </c>
     </row>
@@ -1220,17 +1492,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,48</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,44</t>
+          <t>4,77</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,41</t>
+          <t>4,42</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1240,22 +1512,42 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>7,1%</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>13,1%</t>
+          <t>2,08</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>12,49%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
+          <t>13,88%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>12,25%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
           <t>10,58%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>2,83%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>5,29%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1560,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 6,68</t>
+          <t>-2,52; 5,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,77; 8,21</t>
+          <t>0,78; 8,33</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,56; 8,57</t>
+          <t>0,26; 8,38</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 8,64</t>
+          <t>-0,51; 8,64</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 20,78</t>
+          <t>-3,74; 5,34</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,04; 25,67</t>
+          <t>-2,3; 7,34</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,29; 26,11</t>
+          <t>-6,45; 17,57</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 23,01</t>
+          <t>2,04; 25,79</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0,66; 25,39</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-1,46; 22,97</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-8,45; 13,36</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-5,66; 20,42</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1312,13 +1631,13 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
